--- a/pokemon-battle-simulator/pokemon_stats.xlsx
+++ b/pokemon-battle-simulator/pokemon_stats.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prati\datascience-only\final-project-voice-recognition\pokemon-battle-simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xerod\Desktop\Data_Science_Course\Project_Repos\final-project-voice-recognition\pokemon-battle-simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D034E9A-4ADA-47C8-A816-F24025995F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314DB05-052A-40B6-96C7-625978C9EE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{BB94EC8A-075C-45A8-80BF-37104BB4A662}"/>
+    <workbookView xWindow="1886" yWindow="1886" windowWidth="19285" windowHeight="12120" xr2:uid="{BB94EC8A-075C-45A8-80BF-37104BB4A662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,18 +63,12 @@
     <t>Charizard</t>
   </si>
   <si>
-    <t>Venasaur</t>
-  </si>
-  <si>
     <t>Blastoise</t>
   </si>
   <si>
     <t>Eevee</t>
   </si>
   <si>
-    <t>Onix</t>
-  </si>
-  <si>
     <t>Alakazam</t>
   </si>
   <si>
@@ -89,9 +81,6 @@
     <t>Machamp</t>
   </si>
   <si>
-    <t>Garrrridos</t>
-  </si>
-  <si>
     <t>Scissor</t>
   </si>
   <si>
@@ -101,13 +90,22 @@
     <t>Dragonite</t>
   </si>
   <si>
-    <t>Dugong</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Projected</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>Gyarados</t>
+  </si>
+  <si>
+    <t>Dewgong</t>
+  </si>
+  <si>
+    <t>Venusaur</t>
   </si>
 </sst>
 </file>
@@ -159,14 +157,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,32 +482,32 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="11" width="9.06640625" style="2"/>
-    <col min="12" max="16" width="9.06640625" style="4"/>
+    <col min="7" max="11" width="9.07421875" style="1"/>
+    <col min="12" max="16" width="9.07421875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -528,38 +526,38 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -579,44 +577,44 @@
       <c r="F3">
         <v>17</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>35</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>55</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>40</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>90</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <f>SUM(G3:J3)</f>
         <v>220</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <f>ROUNDDOWN((G3/$K3) * 50,0)</f>
         <v>7</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <f t="shared" ref="M3:O3" si="0">ROUNDDOWN((H3/$K3) * 50,0)</f>
         <v>12</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="2">
         <f>SUM(L3:O3)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -636,44 +634,44 @@
       <c r="F4">
         <v>13</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>106</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>154</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>90</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>130</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K18" si="2">SUM(G4:J4)</f>
         <v>480</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <f t="shared" ref="L4:L18" si="3">ROUNDDOWN((G4/$K4) * 50,0)</f>
         <v>11</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <f t="shared" ref="M4:M18" si="4">ROUNDDOWN((H4/$K4) * 50,0)</f>
         <v>16</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <f t="shared" ref="N4:N18" si="5">ROUNDDOWN((I4/$K4) * 50,0)</f>
         <v>9</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <f t="shared" ref="O4:O18" si="6">ROUNDDOWN((J4/$K4) * 50,0)</f>
         <v>13</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <f t="shared" ref="P4:P18" si="7">SUM(L4:O4)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -693,46 +691,46 @@
       <c r="F5">
         <v>13</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>78</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>109</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>85</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>100</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
         <v>372</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -750,46 +748,46 @@
       <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>80</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>100</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>80</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
@@ -807,46 +805,46 @@
       <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>79</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>85</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>105</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>78</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
         <v>347</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
@@ -864,46 +862,46 @@
       <c r="F8">
         <v>13</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>55</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>55</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>65</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>55</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -921,46 +919,46 @@
       <c r="F9">
         <v>10</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>35</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>45</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>160</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>70</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
@@ -978,46 +976,46 @@
       <c r="F10">
         <v>15</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>55</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>135</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>95</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>120</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>405</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
@@ -1035,46 +1033,46 @@
       <c r="F11">
         <v>14</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>60</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>130</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>75</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>110</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -1092,46 +1090,46 @@
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>90</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>92</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>87</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>76</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>345</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="2">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="2">
         <f t="shared" si="7"/>
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -1149,46 +1147,46 @@
       <c r="F13">
         <v>7</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>90</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>130</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>85</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>55</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="2">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -1206,46 +1204,46 @@
       <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>95</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>125</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>100</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>81</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>401</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="2">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -1263,46 +1261,46 @@
       <c r="F15">
         <v>8</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>70</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>130</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>100</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>65</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
         <v>365</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="2">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -1320,46 +1318,46 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>160</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>110</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>110</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>30</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>410</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
@@ -1377,46 +1375,46 @@
       <c r="F17">
         <v>9</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>91</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>134</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>100</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>80</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>405</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
@@ -1434,39 +1432,39 @@
       <c r="F18">
         <v>12</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>90</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>70</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>95</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>70</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
